--- a/output7/Test_Case_Sample.xlsx
+++ b/output7/Test_Case_Sample.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58A5AE8-657F-4838-998C-B084DA768142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5718A49-0577-4257-AB6A-A338B4285074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="漢字注音" sheetId="9" r:id="rId2"/>
-    <sheet name="缺字表" sheetId="96" r:id="rId3"/>
-    <sheet name="人工標音字庫" sheetId="95" r:id="rId4"/>
-    <sheet name="標音字庫" sheetId="94" r:id="rId5"/>
-    <sheet name="漢字庫（範例）" sheetId="10" r:id="rId6"/>
+    <sheet name="缺字表" sheetId="120" r:id="rId3"/>
+    <sheet name="缺字表（測試案例）" sheetId="96" r:id="rId4"/>
+    <sheet name="人工標音字庫" sheetId="95" r:id="rId5"/>
+    <sheet name="標音字庫" sheetId="94" r:id="rId6"/>
+    <sheet name="漢字庫（範例）" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="915">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3260,6 +3261,9 @@
   <si>
     <t>規一求</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -12521,8 +12525,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44BE30-5256-4FA6-ACBA-14D2F25283C3}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACB2995-03F4-4DC4-89B4-87229EE4C3D5}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12547,7 +12551,7 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>635</v>
+        <v>914</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -12558,7 +12562,7 @@
         <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>635</v>
+        <v>914</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -12569,64 +12573,9 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>635</v>
+        <v>914</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>224</v>
-      </c>
-      <c r="B5" t="s">
-        <v>635</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B6" t="s">
-        <v>635</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" t="s">
-        <v>635</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" t="s">
-        <v>635</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" t="s">
-        <v>635</v>
-      </c>
-      <c r="C9">
         <v>1</v>
       </c>
     </row>
@@ -12637,6 +12586,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44BE30-5256-4FA6-ACBA-14D2F25283C3}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>635</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" t="s">
+        <v>635</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFEB7AA-2BD1-4C46-8ED1-3E8D31DFC8B4}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -12664,7 +12729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7789BAD3-B74E-4FBF-A5A3-DF2955BD8F4E}">
   <dimension ref="A1:D238"/>
   <sheetViews>
@@ -15299,7 +15364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9263D59E-1A21-4F31-9209-F968B9AD69DE}">
   <dimension ref="A1:C4"/>
   <sheetViews>
